--- a/Templates/BOM/Template_BOM.xlsx
+++ b/Templates/BOM/Template_BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Altium\Templates\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Altium\AD20\Library\Altium_Library_Kam\Templates\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>Column=Case</t>
   </si>
   <si>
-    <t>Column=Supplier</t>
-  </si>
-  <si>
     <t>Column=Item</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Field=ProjectRevision</t>
+  </si>
+  <si>
+    <t>Column=Supplier1</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1621,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1667,7 +1667,7 @@
       <c r="A2" s="70"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -1759,10 +1759,10 @@
       <c r="A6" s="70"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="24"/>
@@ -1809,11 +1809,11 @@
       </c>
       <c r="D8" s="91">
         <f ca="1">TODAY()</f>
-        <v>44748</v>
+        <v>44869</v>
       </c>
       <c r="E8" s="92">
         <f ca="1">NOW()</f>
-        <v>44748.526624537037</v>
+        <v>44869.68741215278</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="25"/>
@@ -1830,22 +1830,22 @@
     <row r="9" spans="1:16" s="28" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71"/>
       <c r="B9" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="94" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="94" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H9" s="94" t="s">
         <v>50</v>
@@ -1857,7 +1857,7 @@
         <v>33</v>
       </c>
       <c r="K9" s="94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="95" t="s">
         <v>37</v>
@@ -1866,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="N9" s="95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O9" s="95" t="s">
         <v>39</v>
